--- a/results/execution/knn_optm_res/knn_optm_res.xlsx
+++ b/results/execution/knn_optm_res/knn_optm_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marim\CLionProjects\knn_ensemble_research\results\execution\knn_optm_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625D141-C07D-40A1-8F10-6C0832F54D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BFA4AC-CC75-4E57-AF0E-13978B2F457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="138">
   <si>
     <t>Dataset</t>
   </si>
@@ -356,6 +356,87 @@
   </si>
   <si>
     <t>[0.22, 0, 0.16, 0.44, 0, 0, 0.18]</t>
+  </si>
+  <si>
+    <t>[0.143938, 0.185863, 0.232877, 0, 0.165311, 0, 0.272011]</t>
+  </si>
+  <si>
+    <t>[0.0176983, 0, 0.432119, 0, 0.289693, 0.0316333, 0.228856]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0.182321, 0, 0, 0, 0.817679]</t>
+  </si>
+  <si>
+    <t>[0, 0.419308, 0.135423, 0.272286, 0, 0, 0.172984]</t>
+  </si>
+  <si>
+    <t>[0.300154, 0.0389681, 0.167947, 0.013349, 0.185488, 0, 0.294094]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0.366112, 0, 0, 0, 0.633888]</t>
+  </si>
+  <si>
+    <t>[0.049971, 0, 0.162799, 0, 0.136089, 0.00107911, 0.650062]</t>
+  </si>
+  <si>
+    <t>[0.180704, 0, 0.0526062, 0.0661344, 0, 0.0586124, 0.641943]</t>
+  </si>
+  <si>
+    <t>[0.0709872, 0, 0.126397, 0, 0, 0.519233, 0.283382]</t>
+  </si>
+  <si>
+    <t>[0.469333, 0.229805, 0.0338831, 0, 0.047442, 0, 0.219538]</t>
+  </si>
+  <si>
+    <t>[0.249335, 0, 0.130371, 0, 0.250367, 0, 0.369927]</t>
+  </si>
+  <si>
+    <t>[0, 0.929476, 0, 0, 0, 0, 0.0705243]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0.0984456, 0, 0, 0.0348769, 0.866678]</t>
+  </si>
+  <si>
+    <t>[0.260746, 0.0895891, 0.223063, 0.0577042, 0, 0, 0.368898]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0.342266, 0, 0, 0, 0.657734]</t>
+  </si>
+  <si>
+    <t>[0.120153, 0, 0.111338, 0, 0.224161, 0.00215351, 0.542195]</t>
+  </si>
+  <si>
+    <t>[0.192217, 0, 0.0217756, 0.0489955, 0.0559, 0, 0.681112]</t>
+  </si>
+  <si>
+    <t>[0.107838, 0, 0.092361, 0, 0, 0.491904, 0.307896]</t>
+  </si>
+  <si>
+    <t>[0.269355, 0.136642, 0.281774, 0, 0.0738443, 0, 0.238385]</t>
+  </si>
+  <si>
+    <t>[0.230473, 0, 0.298209, 0.0231363, 0.178778, 0, 0.269404]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0.0464482, 0.0288166, 0, 0, 0, 0.924735]</t>
+  </si>
+  <si>
+    <t>[0.24496, 0.00751038, 0.249362, 0.0594054, 0.0480976, 0, 0.390665]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0.224715, 0, 0, 0, 0.775285]</t>
+  </si>
+  <si>
+    <t>[0.104151, 0.00399651, 0.193303, 0, 0.125501, 0, 0.573048]</t>
+  </si>
+  <si>
+    <t>[0.203196, 0, 0.0182129, 0.0461216, 0.0615743, 0, 0.670896]</t>
+  </si>
+  <si>
+    <t>[0.0187993, 0, 0.124321, 0, 0.5089, 0, 0.34798]</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33F9F44-0DC5-474D-8EA0-8DC9292C987F}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ABEA48-9D1E-4C16-981C-1D499460DCED}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,9 +2858,15 @@
     <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2798,8 +2885,26 @@
       <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2818,8 +2923,26 @@
       <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>79.4619</v>
+      </c>
+      <c r="K2" s="3">
+        <v>82.352900000000005</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2838,8 +2961,26 @@
       <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>88.492099999999994</v>
+      </c>
+      <c r="K3" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2858,8 +2999,26 @@
       <c r="F4" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>92.324100000000001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>92.1143</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2878,8 +3037,26 @@
       <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>84.893600000000006</v>
+      </c>
+      <c r="K5" s="3">
+        <v>87.659599999999998</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2898,8 +3075,26 @@
       <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>84.381299999999996</v>
+      </c>
+      <c r="K6" s="3">
+        <v>85.763199999999998</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2918,8 +3113,26 @@
       <c r="F7" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>80.551699999999997</v>
+      </c>
+      <c r="K7" s="3">
+        <v>83.488100000000003</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2938,8 +3151,26 @@
       <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>96.479500000000002</v>
+      </c>
+      <c r="K8" s="3">
+        <v>95.0702</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2958,8 +3189,26 @@
       <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>89.760900000000007</v>
+      </c>
+      <c r="K9" s="3">
+        <v>90</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2978,8 +3227,36 @@
       <c r="F10" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>93.420699999999997</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2998,8 +3275,26 @@
       <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3018,8 +3313,26 @@
       <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>75.628600000000006</v>
+      </c>
+      <c r="K14" s="3">
+        <v>78.176500000000004</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -3038,8 +3351,26 @@
       <c r="F15" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>87.460300000000004</v>
+      </c>
+      <c r="K15" s="3">
+        <v>88.15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -3058,8 +3389,26 @@
       <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>85.106399999999994</v>
+      </c>
+      <c r="K16" s="6">
+        <v>91.8</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -3078,8 +3427,26 @@
       <c r="F17" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>91.472200000000001</v>
+      </c>
+      <c r="K17" s="3">
+        <v>85.744699999999995</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -3098,8 +3465,26 @@
       <c r="F18" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>80.213700000000003</v>
+      </c>
+      <c r="K18" s="3">
+        <v>84.486800000000002</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3118,8 +3503,26 @@
       <c r="F19" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>79.104299999999995</v>
+      </c>
+      <c r="K19" s="3">
+        <v>80.107100000000003</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3138,8 +3541,26 @@
       <c r="F20" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>95.949299999999994</v>
+      </c>
+      <c r="K20" s="3">
+        <v>97.303600000000003</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3158,8 +3579,26 @@
       <c r="F21" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>88.057599999999994</v>
+      </c>
+      <c r="K21" s="3">
+        <v>88.019000000000005</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3178,11 +3617,38 @@
       <c r="F22" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>93.420699999999997</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E23" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -3201,8 +3667,26 @@
       <c r="F25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -3221,8 +3705,26 @@
       <c r="F26" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7</v>
+      </c>
+      <c r="J26" s="3">
+        <v>77.685699999999997</v>
+      </c>
+      <c r="K26" s="3">
+        <v>78.2059</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3241,8 +3743,26 @@
       <c r="F27" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="3">
+        <v>83.182500000000005</v>
+      </c>
+      <c r="K27" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3261,8 +3781,26 @@
       <c r="F28" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7</v>
+      </c>
+      <c r="J28" s="3">
+        <v>85.106399999999994</v>
+      </c>
+      <c r="K28" s="3">
+        <v>90.1143</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -3281,8 +3819,26 @@
       <c r="F29" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3">
+        <v>90.333299999999994</v>
+      </c>
+      <c r="K29" s="3">
+        <v>85.319100000000006</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -3301,8 +3857,26 @@
       <c r="F30" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7</v>
+      </c>
+      <c r="J30" s="3">
+        <v>80.603300000000004</v>
+      </c>
+      <c r="K30" s="3">
+        <v>82.8947</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -3321,8 +3895,26 @@
       <c r="F31" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7</v>
+      </c>
+      <c r="J31" s="3">
+        <v>77.435699999999997</v>
+      </c>
+      <c r="K31" s="3">
+        <v>79.25</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3341,8 +3933,26 @@
       <c r="F32" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7</v>
+      </c>
+      <c r="J32" s="3">
+        <v>96.305099999999996</v>
+      </c>
+      <c r="K32" s="3">
+        <v>96.571399999999997</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3361,8 +3971,26 @@
       <c r="F33" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="3">
+        <v>86.729900000000001</v>
+      </c>
+      <c r="K33" s="3">
+        <v>87.361900000000006</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -3381,8 +4009,27 @@
       <c r="F34" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7</v>
+      </c>
+      <c r="J34" s="3">
+        <v>93.420699999999997</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/execution/knn_optm_res/knn_optm_res.xlsx
+++ b/results/execution/knn_optm_res/knn_optm_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marim\CLionProjects\knn_ensemble_research\results\execution\knn_optm_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BFA4AC-CC75-4E57-AF0E-13978B2F457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDCF5A5-AB6C-4D50-8412-02EA010248A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2848,7 +2848,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,7 +2933,7 @@
         <v>79.4619</v>
       </c>
       <c r="K2" s="3">
-        <v>82.352900000000005</v>
+        <v>82.314300000000003</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>111</v>
@@ -2971,7 +2971,7 @@
         <v>88.492099999999994</v>
       </c>
       <c r="K3" s="3">
-        <v>92.6</v>
+        <v>92.277799999999999</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>112</v>
@@ -3009,7 +3009,7 @@
         <v>92.324100000000001</v>
       </c>
       <c r="K4" s="3">
-        <v>92.1143</v>
+        <v>92.074100000000001</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>113</v>
@@ -3085,7 +3085,7 @@
         <v>84.381299999999996</v>
       </c>
       <c r="K6" s="3">
-        <v>85.763199999999998</v>
+        <v>85.677899999999994</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>115</v>
@@ -3123,7 +3123,7 @@
         <v>80.551699999999997</v>
       </c>
       <c r="K7" s="3">
-        <v>83.488100000000003</v>
+        <v>83.454099999999997</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>116</v>
@@ -3161,7 +3161,7 @@
         <v>96.479500000000002</v>
       </c>
       <c r="K8" s="3">
-        <v>95.0702</v>
+        <v>98.414199999999994</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>117</v>
@@ -3323,7 +3323,7 @@
         <v>75.628600000000006</v>
       </c>
       <c r="K14" s="3">
-        <v>78.176500000000004</v>
+        <v>78.009500000000003</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>120</v>
@@ -3361,7 +3361,7 @@
         <v>87.460300000000004</v>
       </c>
       <c r="K15" s="3">
-        <v>88.15</v>
+        <v>87.896799999999999</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>121</v>
@@ -3399,7 +3399,7 @@
         <v>85.106399999999994</v>
       </c>
       <c r="K16" s="6">
-        <v>91.8</v>
+        <v>91.796300000000002</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>122</v>
@@ -3475,7 +3475,7 @@
         <v>80.213700000000003</v>
       </c>
       <c r="K18" s="3">
-        <v>84.486800000000002</v>
+        <v>84.372600000000006</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>124</v>
@@ -3513,7 +3513,7 @@
         <v>79.104299999999995</v>
       </c>
       <c r="K19" s="3">
-        <v>80.107100000000003</v>
+        <v>80.050399999999996</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>125</v>
@@ -3551,7 +3551,7 @@
         <v>95.949299999999994</v>
       </c>
       <c r="K20" s="3">
-        <v>97.303600000000003</v>
+        <v>97.208600000000004</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>126</v>
@@ -3715,7 +3715,7 @@
         <v>77.685699999999997</v>
       </c>
       <c r="K26" s="3">
-        <v>78.2059</v>
+        <v>77.990499999999997</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>129</v>
@@ -3753,7 +3753,7 @@
         <v>83.182500000000005</v>
       </c>
       <c r="K27" s="3">
-        <v>84.5</v>
+        <v>84.087299999999999</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>130</v>
@@ -3791,7 +3791,7 @@
         <v>85.106399999999994</v>
       </c>
       <c r="K28" s="3">
-        <v>90.1143</v>
+        <v>90.092600000000004</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>131</v>
@@ -3867,7 +3867,7 @@
         <v>80.603300000000004</v>
       </c>
       <c r="K30" s="3">
-        <v>82.8947</v>
+        <v>82.941999999999993</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>133</v>
@@ -3905,7 +3905,7 @@
         <v>77.435699999999997</v>
       </c>
       <c r="K31" s="3">
-        <v>79.25</v>
+        <v>79.222899999999996</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>134</v>
@@ -3943,7 +3943,7 @@
         <v>96.305099999999996</v>
       </c>
       <c r="K32" s="3">
-        <v>96.571399999999997</v>
+        <v>96.501000000000005</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>135</v>

--- a/results/execution/knn_optm_res/knn_optm_res.xlsx
+++ b/results/execution/knn_optm_res/knn_optm_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marim\CLionProjects\knn_ensemble_research\results\execution\knn_optm_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDCF5A5-AB6C-4D50-8412-02EA010248A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B289F12-58C6-4ED5-B54F-A77ADB89896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,6 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2845,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ABEA48-9D1E-4C16-981C-1D499460DCED}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,7 +3200,7 @@
         <v>89.760900000000007</v>
       </c>
       <c r="K9" s="3">
-        <v>90</v>
+        <v>88.909000000000006</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>118</v>
@@ -3589,7 +3590,7 @@
         <v>88.057599999999994</v>
       </c>
       <c r="K21" s="3">
-        <v>88.019000000000005</v>
+        <v>86.635999999999996</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>127</v>
@@ -3981,7 +3982,7 @@
         <v>86.729900000000001</v>
       </c>
       <c r="K33" s="3">
-        <v>87.361900000000006</v>
+        <v>86.446899999999999</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>136</v>
@@ -4027,6 +4028,9 @@
       <c r="M34" s="3" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K40" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
